--- a/documentos/Tabelas-sistema-bilhetagem.xlsx
+++ b/documentos/Tabelas-sistema-bilhetagem.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alessandro.pinto\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF442E6-E0C2-4340-9AD9-A885EB6A7CC8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA34EC0-E99C-4E6F-8DDC-7146E912C0C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{54C7B9D5-F4B4-46C3-8C81-743BDA97114C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="760" activeTab="1" xr2:uid="{54C7B9D5-F4B4-46C3-8C81-743BDA97114C}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -554,7 +559,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1002,7 +1007,7 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1012,29 +1017,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A973B4A-3E8B-44A4-899E-BEBEC8825FB8}">
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="17.625" customWidth="1"/>
-    <col min="6" max="6" width="15.75" customWidth="1"/>
-    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1057,12 +1063,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1076,12 +1082,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1101,17 +1107,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="M9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1161,13 +1167,13 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -1175,11 +1181,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>51</v>
       </c>
@@ -1189,7 +1195,7 @@
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>13</v>
       </c>
@@ -1215,16 +1221,16 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1250,7 +1256,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>99</v>
       </c>
@@ -1270,7 +1276,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>100</v>
       </c>
@@ -1294,7 +1300,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>101</v>
       </c>
@@ -1318,7 +1324,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>120</v>
       </c>
@@ -1338,7 +1344,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>34</v>
       </c>
@@ -1346,7 +1352,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>28</v>
       </c>
@@ -1354,12 +1360,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>59</v>
       </c>
@@ -1382,22 +1388,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -1405,12 +1411,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D42" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D43" s="6" t="s">
         <v>45</v>
       </c>
@@ -1430,12 +1436,12 @@
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="17.25" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1446,7 +1452,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2000</v>
       </c>
@@ -1461,7 +1467,7 @@
         <v>0.53472222222222221</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4800</v>
       </c>
@@ -1476,7 +1482,7 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>A3-A2</f>
         <v>2800</v>
@@ -1489,12 +1495,12 @@
       </c>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>800</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>A5*10</f>
         <v>8000</v>
@@ -1507,12 +1513,12 @@
         <v>3.6111111111111205E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E7">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E8">
         <v>70</v>
       </c>
@@ -1520,38 +1526,38 @@
         <v>1715571643</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G9">
         <v>1715573194</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E10">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E11">
         <f>(E10/E8)*100</f>
         <v>57.142857142857139</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I15">
         <v>2.8</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I16">
         <v>2.8</v>
       </c>
     </row>
-    <row r="17" spans="9:9">
+    <row r="17" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I17">
         <v>3.7</v>
       </c>
     </row>
-    <row r="18" spans="9:9">
+    <row r="18" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I18">
         <v>4.7</v>
       </c>

--- a/documentos/Tabelas-sistema-bilhetagem.xlsx
+++ b/documentos/Tabelas-sistema-bilhetagem.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA34EC0-E99C-4E6F-8DDC-7146E912C0C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CB6574-0824-4A0E-BDC9-4F321287754E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="760" activeTab="1" xr2:uid="{54C7B9D5-F4B4-46C3-8C81-743BDA97114C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="760" activeTab="1" xr2:uid="{54C7B9D5-F4B4-46C3-8C81-743BDA97114C}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -74,6 +69,31 @@
         </r>
       </text>
     </comment>
+    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{A21771EE-6AFE-4997-B27D-52E30062980C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Alessandro da Silva Pinto:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+1 - online
+2 - balcao </t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E11" authorId="0" shapeId="0" xr:uid="{758475E3-4D54-4914-8185-5EE2DF6498C5}">
       <text>
         <r>
@@ -331,7 +351,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="75">
   <si>
     <t>Perfil</t>
   </si>
@@ -553,13 +573,16 @@
   </si>
   <si>
     <t>saída</t>
+  </si>
+  <si>
+    <t>origem_prevenda</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -627,6 +650,19 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1007,7 +1043,7 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1018,29 +1054,29 @@
   <dimension ref="A1:P43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.375" customWidth="1"/>
+    <col min="5" max="5" width="17.625" customWidth="1"/>
+    <col min="6" max="6" width="15.75" customWidth="1"/>
+    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.25" customWidth="1"/>
+    <col min="11" max="11" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1056,19 +1092,19 @@
       <c r="E2" t="s">
         <v>7</v>
       </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
       <c r="G2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="15">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1082,12 +1118,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="15">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1103,21 +1139,24 @@
       <c r="E8" t="s">
         <v>36</v>
       </c>
+      <c r="F8" t="s">
+        <v>74</v>
+      </c>
       <c r="M8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="M9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="15">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1167,13 +1206,13 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="15">
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -1181,11 +1220,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16">
       <c r="A16" s="9" t="s">
         <v>51</v>
       </c>
@@ -1195,7 +1234,7 @@
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="9" t="s">
         <v>13</v>
       </c>
@@ -1221,16 +1260,16 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1256,7 +1295,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>99</v>
       </c>
@@ -1276,7 +1315,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>100</v>
       </c>
@@ -1300,7 +1339,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>101</v>
       </c>
@@ -1324,7 +1363,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>120</v>
       </c>
@@ -1344,7 +1383,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="C26" t="s">
         <v>34</v>
       </c>
@@ -1352,7 +1391,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="C27" t="s">
         <v>28</v>
       </c>
@@ -1360,12 +1399,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>59</v>
       </c>
@@ -1388,22 +1427,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -1411,12 +1450,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="D42" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="D43" s="6" t="s">
         <v>45</v>
       </c>
@@ -1436,12 +1475,12 @@
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1452,7 +1491,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>2000</v>
       </c>
@@ -1467,7 +1506,7 @@
         <v>0.53472222222222221</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>4800</v>
       </c>
@@ -1482,7 +1521,7 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4">
         <f>A3-A2</f>
         <v>2800</v>
@@ -1495,12 +1534,12 @@
       </c>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>800</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6">
         <f>A5*10</f>
         <v>8000</v>
@@ -1513,12 +1552,12 @@
         <v>3.6111111111111205E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="E7">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="E8">
         <v>70</v>
       </c>
@@ -1526,38 +1565,38 @@
         <v>1715571643</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="G9">
         <v>1715573194</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="E10">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="E11">
         <f>(E10/E8)*100</f>
         <v>57.142857142857139</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="I15">
         <v>2.8</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="I16">
         <v>2.8</v>
       </c>
     </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="9:9">
       <c r="I17">
         <v>3.7</v>
       </c>
     </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="9:9">
       <c r="I18">
         <v>4.7</v>
       </c>

--- a/documentos/Tabelas-sistema-bilhetagem.xlsx
+++ b/documentos/Tabelas-sistema-bilhetagem.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sis-bilhetagem\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CB6574-0824-4A0E-BDC9-4F321287754E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088337BD-5F55-4F1C-AE6E-3B21F9839B2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="760" activeTab="1" xr2:uid="{54C7B9D5-F4B4-46C3-8C81-743BDA97114C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="760" activeTab="1" xr2:uid="{54C7B9D5-F4B4-46C3-8C81-743BDA97114C}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -65,7 +70,8 @@
 4 - venda cancelada após ser realizada
 5 - venda paga / parcial (1+ participante on)
 6 - venda paga / completa 
-9 - em edição pelo usuário</t>
+9 - em edição pelo usuário
+10-saída sem baixa - na troca de dia</t>
         </r>
       </text>
     </comment>
@@ -1054,7 +1060,7 @@
   <dimension ref="A1:P43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/documentos/Tabelas-sistema-bilhetagem.xlsx
+++ b/documentos/Tabelas-sistema-bilhetagem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sis-bilhetagem\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088337BD-5F55-4F1C-AE6E-3B21F9839B2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C078A161-564F-4AF2-A71A-53DCB1932FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="760" activeTab="1" xr2:uid="{54C7B9D5-F4B4-46C3-8C81-743BDA97114C}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" tabRatio="760" activeTab="1" xr2:uid="{54C7B9D5-F4B4-46C3-8C81-743BDA97114C}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
           <t xml:space="preserve">
 0 - venda cancelada
 1 - venda agendada / fora prazo
-2 - venda realizada
+2 - venda realizada (em execução)
 3 - venda cancelada / operador
 4 - venda cancelada após ser realizada
 5 - venda paga / parcial (1+ participante on)
@@ -588,7 +588,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1049,7 +1049,7 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1059,30 +1059,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A973B4A-3E8B-44A4-899E-BEBEC8825FB8}">
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.375" customWidth="1"/>
-    <col min="5" max="5" width="17.625" customWidth="1"/>
-    <col min="6" max="6" width="15.75" customWidth="1"/>
-    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.25" customWidth="1"/>
-    <col min="11" max="11" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1105,12 +1105,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1124,12 +1124,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1152,17 +1152,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="M9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1212,13 +1212,13 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -1226,11 +1226,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>51</v>
       </c>
@@ -1240,7 +1240,7 @@
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>13</v>
       </c>
@@ -1266,16 +1266,16 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>99</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>100</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>101</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>120</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>34</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>28</v>
       </c>
@@ -1405,12 +1405,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>59</v>
       </c>
@@ -1433,22 +1433,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -1456,12 +1456,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D42" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D43" s="6" t="s">
         <v>45</v>
       </c>
@@ -1481,12 +1481,12 @@
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="17.25" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2000</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>0.53472222222222221</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4800</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>A3-A2</f>
         <v>2800</v>
@@ -1540,12 +1540,12 @@
       </c>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>800</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>A5*10</f>
         <v>8000</v>
@@ -1558,12 +1558,12 @@
         <v>3.6111111111111205E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E7">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E8">
         <v>70</v>
       </c>
@@ -1571,38 +1571,38 @@
         <v>1715571643</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G9">
         <v>1715573194</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E10">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E11">
         <f>(E10/E8)*100</f>
         <v>57.142857142857139</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I15">
         <v>2.8</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I16">
         <v>2.8</v>
       </c>
     </row>
-    <row r="17" spans="9:9">
+    <row r="17" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I17">
         <v>3.7</v>
       </c>
     </row>
-    <row r="18" spans="9:9">
+    <row r="18" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I18">
         <v>4.7</v>
       </c>

--- a/documentos/Tabelas-sistema-bilhetagem.xlsx
+++ b/documentos/Tabelas-sistema-bilhetagem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sis-bilhetagem\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C078A161-564F-4AF2-A71A-53DCB1932FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFFE33E2-513B-4C73-8F34-AC7E24FC7D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" tabRatio="760" activeTab="1" xr2:uid="{54C7B9D5-F4B4-46C3-8C81-743BDA97114C}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="24615" windowHeight="11835" tabRatio="760" activeTab="1" xr2:uid="{54C7B9D5-F4B4-46C3-8C81-743BDA97114C}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -41,6 +41,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Alessandro da Silva Pinto</author>
+    <author>Administrador</author>
   </authors>
   <commentList>
     <comment ref="E8" authorId="0" shapeId="0" xr:uid="{730FAAFF-83F0-408B-92CF-59009FFC7E00}">
@@ -274,6 +275,32 @@
         </r>
       </text>
     </comment>
+    <comment ref="Q11" authorId="1" shapeId="0" xr:uid="{58AF032B-BF38-4596-98C1-9E08DCC27D1E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Administrador:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0-não informado
+1-autizado (ambiente pai)
+2 - autorizado balcão</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F17" authorId="0" shapeId="0" xr:uid="{BAD22546-1A67-4CDC-9411-E616B20BBC39}">
       <text>
         <r>
@@ -357,7 +384,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="76">
   <si>
     <t>Perfil</t>
   </si>
@@ -582,13 +609,16 @@
   </si>
   <si>
     <t>origem_prevenda</t>
+  </si>
+  <si>
+    <t>autoriza</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -670,6 +700,14 @@
       <name val="Segoe UI"/>
       <charset val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -697,7 +735,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -709,6 +747,7 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -724,6 +763,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1057,10 +1100,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A973B4A-3E8B-44A4-899E-BEBEC8825FB8}">
-  <dimension ref="A1:P43"/>
+  <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1077,12 +1120,12 @@
     <col min="11" max="11" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1105,12 +1148,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1124,12 +1167,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1152,17 +1195,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1211,14 +1254,17 @@
       <c r="P11" s="10" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q11" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -1226,11 +1272,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>51</v>
       </c>
@@ -1259,7 +1305,7 @@
       <c r="F17" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="11" t="s">
         <v>57</v>
       </c>
       <c r="H17" s="9" t="s">

--- a/documentos/Tabelas-sistema-bilhetagem.xlsx
+++ b/documentos/Tabelas-sistema-bilhetagem.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sis-bilhetagem\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFFE33E2-513B-4C73-8F34-AC7E24FC7D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B936F9-E9C8-40DA-B099-C51DB285E2BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="24615" windowHeight="11835" tabRatio="760" activeTab="1" xr2:uid="{54C7B9D5-F4B4-46C3-8C81-743BDA97114C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="760" activeTab="1" xr2:uid="{54C7B9D5-F4B4-46C3-8C81-743BDA97114C}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -101,6 +101,104 @@
         </r>
       </text>
     </comment>
+    <comment ref="G8" authorId="1" shapeId="0" xr:uid="{E717DB50-8468-458A-9157-E4F161C3BEC1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Administrador:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+datahora q o responsável começou a fazer o pre cadastro. Status=9</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H8" authorId="1" shapeId="0" xr:uid="{402C1AF0-07AB-48C0-A4F3-EED03F630AFE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Administrador:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+datahora em que o cadastro foi concluido pelo responsávl troca status=9 para status=1
+ou a pre-reserva foi cadastrada no balcao, status=1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I8" authorId="1" shapeId="0" xr:uid="{AE2065B9-0363-450D-BFD2-6EEC9D40C651}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Administrador:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+horário em que o pagamento é de fato realizado, status=2.
+mesmo horario q começa contar o tempo da entrada</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J8" authorId="1" shapeId="0" xr:uid="{BC203BA7-B2CD-4647-9F0D-6BAA2CA60355}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Administrador:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+aparentemente criei esse campo a mais sem querer</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E11" authorId="0" shapeId="0" xr:uid="{758475E3-4D54-4914-8185-5EE2DF6498C5}">
       <text>
         <r>
@@ -384,7 +482,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="80">
   <si>
     <t>Perfil</t>
   </si>
@@ -612,6 +710,18 @@
   </si>
   <si>
     <t>autoriza</t>
+  </si>
+  <si>
+    <t>datahora_solicita</t>
+  </si>
+  <si>
+    <t>datahora_efetiva</t>
+  </si>
+  <si>
+    <t>pre_pgtodatahora</t>
+  </si>
+  <si>
+    <t>pre_reservadatahora</t>
   </si>
 </sst>
 </file>
@@ -1102,8 +1212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A973B4A-3E8B-44A4-899E-BEBEC8825FB8}">
   <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1114,9 +1224,10 @@
     <col min="4" max="4" width="17.42578125" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
     <col min="9" max="9" width="17.28515625" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" customWidth="1"/>
     <col min="11" max="11" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1190,6 +1301,18 @@
       </c>
       <c r="F8" t="s">
         <v>74</v>
+      </c>
+      <c r="G8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" t="s">
+        <v>78</v>
+      </c>
+      <c r="J8" t="s">
+        <v>79</v>
       </c>
       <c r="M8" t="s">
         <v>27</v>

--- a/documentos/Tabelas-sistema-bilhetagem.xlsx
+++ b/documentos/Tabelas-sistema-bilhetagem.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sis-bilhetagem\documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sistemas\sis-bilhetagem\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B936F9-E9C8-40DA-B099-C51DB285E2BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E74908-609E-4352-95F3-9C6AFB79FE0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="760" activeTab="1" xr2:uid="{54C7B9D5-F4B4-46C3-8C81-743BDA97114C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="760" activeTab="1" xr2:uid="{54C7B9D5-F4B4-46C3-8C81-743BDA97114C}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -421,7 +421,8 @@
           <t xml:space="preserve">
 0 - excluído
 1 - em edição
-2 - aberto</t>
+2 - aberto
+3 - Encerrado</t>
         </r>
       </text>
     </comment>
@@ -873,10 +874,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1202,7 +1199,7 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1213,30 +1210,30 @@
   <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" customWidth="1"/>
+    <col min="10" max="10" width="18.88671875" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1259,12 +1256,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1278,12 +1275,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1318,17 +1315,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="M9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1381,13 +1378,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -1395,11 +1392,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>51</v>
       </c>
@@ -1409,7 +1406,7 @@
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>13</v>
       </c>
@@ -1435,16 +1432,16 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1470,7 +1467,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>99</v>
       </c>
@@ -1490,7 +1487,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>100</v>
       </c>
@@ -1514,7 +1511,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>101</v>
       </c>
@@ -1538,7 +1535,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>120</v>
       </c>
@@ -1558,7 +1555,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>34</v>
       </c>
@@ -1566,7 +1563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>28</v>
       </c>
@@ -1574,12 +1571,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>59</v>
       </c>
@@ -1602,22 +1599,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -1625,12 +1622,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D42" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D43" s="6" t="s">
         <v>45</v>
       </c>
@@ -1650,12 +1647,12 @@
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1666,7 +1663,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2000</v>
       </c>
@@ -1681,7 +1678,7 @@
         <v>0.53472222222222221</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>4800</v>
       </c>
@@ -1696,7 +1693,7 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <f>A3-A2</f>
         <v>2800</v>
@@ -1709,12 +1706,12 @@
       </c>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>800</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <f>A5*10</f>
         <v>8000</v>
@@ -1727,12 +1724,12 @@
         <v>3.6111111111111205E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E7">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E8">
         <v>70</v>
       </c>
@@ -1740,38 +1737,38 @@
         <v>1715571643</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G9">
         <v>1715573194</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E10">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E11">
         <f>(E10/E8)*100</f>
         <v>57.142857142857139</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I15">
         <v>2.8</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I16">
         <v>2.8</v>
       </c>
     </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I17">
         <v>3.7</v>
       </c>
     </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I18">
         <v>4.7</v>
       </c>
